--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clementboloch/Documents/OpenClassrooms/Projet 7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clementboloch/Documents/OpenClassrooms/Projet 7/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7CC668-28E3-644F-8C39-8A4435727994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A0B9F5-DA40-464D-BCBE-3489E1FD7AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16460" xr2:uid="{063A6BE7-A2EC-6A4E-997C-B671AB71AA1B}"/>
+    <workbookView xWindow="760" yWindow="1360" windowWidth="28040" windowHeight="16460" xr2:uid="{063A6BE7-A2EC-6A4E-997C-B671AB71AA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Actions #</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Action-12</t>
   </si>
   <si>
-    <t> 9%</t>
-  </si>
-  <si>
     <t>Action-13</t>
   </si>
   <si>
@@ -107,14 +104,74 @@
     <t>Action-20</t>
   </si>
   <si>
-    <t>Bénéfice (après 2 ans)</t>
+    <t>Bénéfice (après 2 ans)</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>15%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>7%</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>9%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>3%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>14%</t>
+  </si>
+  <si>
+    <t>21%</t>
+  </si>
+  <si>
+    <t>18%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,6 +189,13 @@
       <sz val="16"/>
       <color rgb="FF271A38"/>
       <name val="Inter"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,17 +215,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,7 +545,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -484,6 +553,7 @@
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
@@ -494,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="20">
@@ -504,9 +574,10 @@
       <c r="B2" s="2">
         <v>20</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.05</v>
-      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="20">
       <c r="A3" s="2" t="s">
@@ -515,9 +586,10 @@
       <c r="B3" s="2">
         <v>30</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.1</v>
-      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="20">
       <c r="A4" s="2" t="s">
@@ -526,9 +598,10 @@
       <c r="B4" s="2">
         <v>50</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.15</v>
-      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="20">
       <c r="A5" s="2" t="s">
@@ -537,9 +610,10 @@
       <c r="B5" s="2">
         <v>70</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.2</v>
-      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="21">
       <c r="A6" s="2" t="s">
@@ -548,9 +622,10 @@
       <c r="B6" s="2">
         <v>60</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.17</v>
-      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20">
@@ -560,9 +635,10 @@
       <c r="B7" s="2">
         <v>80</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.25</v>
-      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="20">
       <c r="A8" s="2" t="s">
@@ -571,9 +647,10 @@
       <c r="B8" s="2">
         <v>22</v>
       </c>
-      <c r="C8" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="20">
       <c r="A9" s="2" t="s">
@@ -582,9 +659,10 @@
       <c r="B9" s="2">
         <v>26</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.11</v>
-      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="20">
       <c r="A10" s="2" t="s">
@@ -593,9 +671,10 @@
       <c r="B10" s="2">
         <v>48</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.13</v>
-      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="20">
       <c r="A11" s="2" t="s">
@@ -604,9 +683,10 @@
       <c r="B11" s="2">
         <v>34</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.27</v>
-      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="20">
       <c r="A12" s="2" t="s">
@@ -615,9 +695,10 @@
       <c r="B12" s="2">
         <v>42</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.17</v>
-      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="20">
       <c r="A13" s="2" t="s">
@@ -627,96 +708,106 @@
         <v>110</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="20">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>38</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.23</v>
-      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="20">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.01</v>
-      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="20">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>18</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20">
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" ht="20">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>8</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20">
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="20">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20">
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="20">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>10</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20">
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="20">
       <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="20">
+      <c r="A21" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>114</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.18</v>
-      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
